--- a/Copy of Social Media Data Collection Sheet (DEB).xlsx
+++ b/Copy of Social Media Data Collection Sheet (DEB).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\social media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C6F923D-30C7-42B9-A561-3182D78D2EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F460A8-6783-4CF7-9C0F-37B7752B5670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2124" yWindow="2124" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="62">
   <si>
     <t>GENDER</t>
   </si>
@@ -774,7 +774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="AC24" sqref="AC24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2241,182 +2241,1042 @@
       </c>
     </row>
     <row r="16" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-    </row>
-    <row r="17" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-      <c r="AB17" s="16"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-    </row>
-    <row r="18" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="18"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-    </row>
-    <row r="19" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-      <c r="AB19" s="16"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-    </row>
-    <row r="20" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="18"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16"/>
-      <c r="AB21" s="16"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-    </row>
-    <row r="22" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-    </row>
-    <row r="23" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
-      <c r="X23" s="16"/>
-      <c r="Y23" s="16"/>
-      <c r="Z23" s="16"/>
-      <c r="AA23" s="16"/>
-      <c r="AB23" s="16"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-    </row>
-    <row r="24" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="18"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-    </row>
-    <row r="25" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="16"/>
-      <c r="AB25" s="16"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-    </row>
-    <row r="26" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="18"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-    </row>
-    <row r="27" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>2002</v>
+      </c>
+      <c r="C16">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>160</v>
+      </c>
+      <c r="E16">
+        <v>61</v>
+      </c>
+      <c r="G16" s="18">
+        <v>5</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>3.68</v>
+      </c>
+      <c r="U16">
+        <v>4.5</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA16" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD16" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE16" s="21">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>2005</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>165</v>
+      </c>
+      <c r="E17">
+        <v>86</v>
+      </c>
+      <c r="G17" s="16">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>4.34</v>
+      </c>
+      <c r="L17">
+        <v>0.53</v>
+      </c>
+      <c r="M17">
+        <v>0.12</v>
+      </c>
+      <c r="N17">
+        <v>0.01</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.41</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC17" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD17" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE17" s="21">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="AF17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1998</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="E18">
+        <v>62</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>5.45</v>
+      </c>
+      <c r="L18">
+        <v>0.09</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>0.3</v>
+      </c>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>0.3</v>
+      </c>
+      <c r="R18">
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>3.34</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA18" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE18" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>1999</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>167.56</v>
+      </c>
+      <c r="E19">
+        <v>70</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>4.13</v>
+      </c>
+      <c r="L19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M19">
+        <v>2.17</v>
+      </c>
+      <c r="N19">
+        <v>0.01</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.13</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>1.3</v>
+      </c>
+      <c r="T19">
+        <v>3.5</v>
+      </c>
+      <c r="U19">
+        <v>4.42</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD19" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20">
+        <v>2001</v>
+      </c>
+      <c r="C20">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <v>163.83000000000001</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="G20" s="18">
+        <v>8</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>5.36</v>
+      </c>
+      <c r="L20">
+        <v>2.36</v>
+      </c>
+      <c r="M20">
+        <v>0.33</v>
+      </c>
+      <c r="N20">
+        <v>0.01</v>
+      </c>
+      <c r="O20">
+        <v>0.35</v>
+      </c>
+      <c r="P20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>0.01</v>
+      </c>
+      <c r="R20">
+        <v>6</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>2.8</v>
+      </c>
+      <c r="U20">
+        <v>4.92</v>
+      </c>
+      <c r="V20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA20" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD20" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AF20">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>170.18</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+      <c r="G21" s="16">
+        <v>8</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>13.5</v>
+      </c>
+      <c r="L21">
+        <v>3.24</v>
+      </c>
+      <c r="M21">
+        <v>0.23</v>
+      </c>
+      <c r="N21">
+        <v>0.03</v>
+      </c>
+      <c r="O21">
+        <v>0.42</v>
+      </c>
+      <c r="P21">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="Q21">
+        <v>0.01</v>
+      </c>
+      <c r="R21">
+        <v>6</v>
+      </c>
+      <c r="S21">
+        <v>0.3</v>
+      </c>
+      <c r="T21">
+        <v>3.45</v>
+      </c>
+      <c r="U21">
+        <v>4.5</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="X21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="AF21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1998</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>167.64</v>
+      </c>
+      <c r="E22">
+        <v>62</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>3.36</v>
+      </c>
+      <c r="L22">
+        <v>0.09</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.01</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.29</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>7</v>
+      </c>
+      <c r="S22">
+        <v>0.3</v>
+      </c>
+      <c r="T22">
+        <v>3.36</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z22" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA22" s="18">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC22" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>1999</v>
+      </c>
+      <c r="C23">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>170</v>
+      </c>
+      <c r="E23">
+        <v>65</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0.45</v>
+      </c>
+      <c r="N23">
+        <v>0.01</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>7</v>
+      </c>
+      <c r="S23">
+        <v>1.5</v>
+      </c>
+      <c r="T23">
+        <v>3.68</v>
+      </c>
+      <c r="U23">
+        <v>4.5</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD23" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AF23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>1999</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>165.1</v>
+      </c>
+      <c r="E24">
+        <v>68</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>6.03</v>
+      </c>
+      <c r="L24">
+        <v>1.3</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>0.15</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>3.58</v>
+      </c>
+      <c r="U24">
+        <v>4.5</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25">
+        <v>2002</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>162.56</v>
+      </c>
+      <c r="E25">
+        <v>68</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>2.5</v>
+      </c>
+      <c r="M25">
+        <v>2.5</v>
+      </c>
+      <c r="N25">
+        <v>0.12</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>3.59</v>
+      </c>
+      <c r="U25">
+        <v>4.75</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="AF25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26">
+        <v>2001</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>180.32</v>
+      </c>
+      <c r="E26">
+        <v>68</v>
+      </c>
+      <c r="G26" s="18">
+        <v>7</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>7.32</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0.25</v>
+      </c>
+      <c r="N26">
+        <v>0.15</v>
+      </c>
+      <c r="O26">
+        <v>0.21</v>
+      </c>
+      <c r="P26">
+        <v>1.2</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>1.3</v>
+      </c>
+      <c r="T26">
+        <v>3.7</v>
+      </c>
+      <c r="U26">
+        <v>4.42</v>
+      </c>
+      <c r="V26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="W26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD26" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="AF26">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="G27" s="16"/>
       <c r="H27" s="16"/>
@@ -2432,7 +3292,7 @@
       <c r="AC27" s="16"/>
       <c r="AD27" s="16"/>
     </row>
-    <row r="28" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
@@ -2448,7 +3308,7 @@
       <c r="AC28" s="18"/>
       <c r="AD28" s="18"/>
     </row>
-    <row r="29" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
@@ -2464,7 +3324,7 @@
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
     </row>
-    <row r="30" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="G30" s="18"/>
       <c r="H30" s="18"/>
@@ -2480,7 +3340,7 @@
       <c r="AC30" s="18"/>
       <c r="AD30" s="18"/>
     </row>
-    <row r="31" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
@@ -2496,7 +3356,7 @@
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
     </row>
-    <row r="32" spans="1:30" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
